--- a/biology/Botanique/Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle/Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle.xlsx
+++ b/biology/Botanique/Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle/Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
+          <t>Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les jardins de l’Archipel des Berges-de-Seine-Niki-de-Saint-Phalle constituent un espace vert flottant du 7e arrondissement de Paris, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
+          <t>Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le site fait partie du parc Rives-de-Seine, et est constitué de jardins flottants[1]. Il est accessible par la promenade Gisèle-Halimi. 
-Les jardins sont ouverts à des horaires réglementés[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site fait partie du parc Rives-de-Seine, et est constitué de jardins flottants. Il est accessible par la promenade Gisèle-Halimi. 
+Les jardins sont ouverts à des horaires réglementés.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
+          <t>Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'archipel porte le nom de Niki de Saint Phalle (1930-2002), plasticienne, peintre, sculptrice et réalisatrice de films franco-américaine.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
+          <t>Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les jardins sont aménagés dans le cadre de la piétonisation des berges de Seine[3]. Ils sont inaugurés par la maire de Paris Anne Hidalgo le 18 septembre 2014[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les jardins sont aménagés dans le cadre de la piétonisation des berges de Seine. Ils sont inaugurés par la maire de Paris Anne Hidalgo le 18 septembre 2014.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jardins_de_l%27Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
+          <t>Jardins_de_l'Archipel_des_Berges-de-Seine-Niki-de-Saint-Phalle</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,10 +624,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit de cinq îles-jardins aménagées sur des barges métalliques. Chacune fait 350 m2, portant la superficie totale à 1 725 m2. Il y a l'île aux oiseaux, l'île prairie, l'île centrale, l'île verger et l'île aux brumes. Chacune a une densité de végétation qui lui est propre[2].
-C'est une réserve de biodiversité le long de la Seine[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit de cinq îles-jardins aménagées sur des barges métalliques. Chacune fait 350 m2, portant la superficie totale à 1 725 m2. Il y a l'île aux oiseaux, l'île prairie, l'île centrale, l'île verger et l'île aux brumes. Chacune a une densité de végétation qui lui est propre.
+C'est une réserve de biodiversité le long de la Seine.
 </t>
         </is>
       </c>
